--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leocr\Desktop\lbc-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE7A65-3D08-4E7C-AECD-80C1EE401DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5C9E43-4375-438E-A3EF-A205B6D83AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B887B182-F6ED-4213-9DB9-E78F9A5CD812}"/>
   </bookViews>
